--- a/Book_Store_Project_Ideation 1.xlsx
+++ b/Book_Store_Project_Ideation 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/nich7312_colorado_edu/Documents/01. Study/00. Revision &amp; Self Study/01. Portfolio Projects/04. CU BookStore Scheduling/CU-BookStore-Work-Scheduling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{08FF8288-96F0-46B8-AEB3-EA04FA386C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A49BE814-0E41-433D-AFA0-785EE84AA195}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{08FF8288-96F0-46B8-AEB3-EA04FA386C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD81E8A2-DA1C-40CB-A539-4C43722C2913}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6144,8 +6144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F4929E-A932-47BD-AAEB-5F30BFDBFCE2}">
   <dimension ref="A1:AP81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB38" sqref="AB38"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
